--- a/5TIA2/Egazamin próbny/Dominik Wronka/INF_03_2024_06_2_SG_zo.xlsx
+++ b/5TIA2/Egazamin próbny/Dominik Wronka/INF_03_2024_06_2_SG_zo.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dane\szkola\2025\5TIA2\Egazamin próbny\Dominik Wronka\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15408" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>`</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +33,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -69,15 +64,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -97,19 +94,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>15827</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>393104</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Obraz 4"/>
+        <xdr:cNvPr id="7" name="Obraz 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -122,8 +119,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22860" y="198120"/>
-          <a:ext cx="5479367" cy="7955280"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5877746" cy="8573697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -136,18 +133,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>608581</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393104</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Obraz 5"/>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -160,8 +157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8145781"/>
-          <a:ext cx="5485381" cy="7985759"/>
+          <a:off x="0" y="8549053"/>
+          <a:ext cx="5879504" cy="8535153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -173,19 +170,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>17585</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6653</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
+      <xdr:colOff>399404</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>312853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Obraz 6"/>
+        <xdr:cNvPr id="5" name="Obraz 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -198,8 +195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16116300"/>
-          <a:ext cx="5493053" cy="5212079"/>
+          <a:off x="17585" y="17051216"/>
+          <a:ext cx="5868219" cy="5201376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,61 +463,67 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="J9:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="0.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="10:12" ht="9.6" customHeight="1"/>
+    <row r="10" spans="10:12" hidden="1"/>
+    <row r="11" spans="10:12" hidden="1"/>
+    <row r="12" spans="10:12" hidden="1"/>
+    <row r="14" spans="10:12" ht="3" customHeight="1"/>
+    <row r="16" spans="10:12" ht="19.2" customHeight="1">
       <c r="J16">
         <f>SUM(I17:J64)</f>
         <v>100</v>
       </c>
       <c r="L16" s="1">
-        <f>SUM(L17:L66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(L17:L66)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" ht="22.2" customHeight="1">
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="L17">
         <f>J17*K17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="10:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" ht="24.6" customHeight="1">
       <c r="J18">
         <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
       </c>
       <c r="L18">
         <f t="shared" ref="L18:L64" si="0">J18*K18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="10:12" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" ht="75" customHeight="1">
       <c r="J19">
         <v>3</v>
       </c>
@@ -529,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="10:12" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:12" ht="112.2" customHeight="1">
       <c r="J20">
         <v>3</v>
       </c>
@@ -538,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="10:12" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:12" ht="112.2" customHeight="1">
       <c r="J21">
         <v>3</v>
       </c>
@@ -547,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:12" ht="57" customHeight="1">
       <c r="J22">
         <v>3</v>
       </c>
@@ -556,17 +559,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="10:12" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:12" ht="84.6" customHeight="1">
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12">
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" ht="34.200000000000003" customHeight="1">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" ht="25.2" customHeight="1">
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="10:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:12" ht="34.799999999999997" customHeight="1">
       <c r="J27">
         <v>2</v>
       </c>
@@ -575,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="10:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:12" ht="12.6" customHeight="1">
       <c r="J28">
         <v>2</v>
       </c>
@@ -584,16 +607,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="10:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:12" ht="49.8" customHeight="1">
       <c r="J29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="10:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:12" ht="36.6" customHeight="1">
       <c r="J30">
         <v>3</v>
       </c>
@@ -602,70 +625,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="10:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:12" ht="13.8" customHeight="1">
       <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12" ht="25.2" customHeight="1">
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" ht="34.799999999999997" customHeight="1">
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" ht="40.799999999999997" customHeight="1">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12" ht="24.6" customHeight="1">
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12" ht="49.2" customHeight="1">
+      <c r="J36">
         <v>3</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="10:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J32">
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12" ht="12.6" customHeight="1">
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12" ht="24" customHeight="1">
+      <c r="J38">
         <v>3</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="10:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="10:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="10:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J36">
-        <v>5</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="10:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="10:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J38">
-        <v>2</v>
-      </c>
       <c r="L38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="10:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:12" ht="38.4" customHeight="1">
       <c r="J39">
         <v>3</v>
       </c>
@@ -674,16 +700,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="10:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:12" ht="46.8" customHeight="1">
       <c r="J40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="10:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:12">
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12" ht="36" customHeight="1">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12" ht="25.8" customHeight="1">
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="10:12" ht="24.6" customHeight="1">
       <c r="J45">
         <v>2</v>
       </c>
@@ -692,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:12" ht="22.8" customHeight="1">
       <c r="J46">
         <v>2</v>
       </c>
@@ -701,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:12" ht="24.6" customHeight="1">
       <c r="J47">
         <v>2</v>
       </c>
@@ -710,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="10:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:12" ht="25.8" customHeight="1">
       <c r="J48">
         <v>2</v>
       </c>
@@ -719,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="10:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:12" ht="24.6" customHeight="1">
       <c r="J49">
         <v>2</v>
       </c>
@@ -728,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:12" ht="38.4" customHeight="1">
       <c r="J50">
         <v>2</v>
       </c>
@@ -737,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="10:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:12" ht="12" customHeight="1">
       <c r="J51">
         <v>2</v>
       </c>
@@ -746,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="10:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:12" ht="36.6" customHeight="1">
       <c r="J52">
         <v>2</v>
       </c>
@@ -755,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="10:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:12" ht="22.2" customHeight="1">
       <c r="J53">
         <v>2</v>
       </c>
@@ -764,71 +817,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="10:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J54">
-        <v>2</v>
-      </c>
+    <row r="54" spans="10:12" ht="16.2" customHeight="1">
       <c r="L54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="10:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="10:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:12" ht="36.6" customHeight="1">
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12" ht="23.4" customHeight="1">
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="10:12" ht="11.4" customHeight="1">
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="10:12" ht="16.8" customHeight="1">
       <c r="J58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="10:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:12" ht="24" customHeight="1">
       <c r="J59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="10:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:12" ht="22.8" customHeight="1">
       <c r="J60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="10:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:12" ht="12.6" customHeight="1">
       <c r="J61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="10:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:12" ht="37.799999999999997" customHeight="1">
       <c r="J62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="10:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:12" ht="25.8" customHeight="1">
       <c r="J63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="10:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:12" ht="25.2" customHeight="1">
       <c r="J64">
         <v>2</v>
       </c>
@@ -837,6 +910,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="65" ht="23.4" customHeight="1"/>
+    <row r="66" ht="23.4" customHeight="1"/>
+    <row r="67" ht="37.200000000000003" customHeight="1"/>
+    <row r="69" ht="34.799999999999997" customHeight="1"/>
+    <row r="70" ht="25.2" customHeight="1"/>
+    <row r="73" ht="21.6" customHeight="1"/>
+    <row r="74" ht="24" customHeight="1"/>
+    <row r="77" ht="23.4" customHeight="1"/>
+    <row r="78" ht="23.4" customHeight="1"/>
+    <row r="80" ht="34.799999999999997" customHeight="1"/>
+    <row r="81" ht="24" customHeight="1"/>
+    <row r="82" ht="25.8" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
